--- a/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.08</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005437</t>
+          <t>005438</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.66</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.46</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005438</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,818 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1750,4 +1751,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2301,4 +2302,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
@@ -2326,12 +2326,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601678-滨化股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2310,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,17 +2322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2341,14 +2362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.38</v>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2357,14 +2400,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.85</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4">
@@ -2373,14 +2506,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="5">
@@ -2389,13 +2522,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.25</v>
       </c>
     </row>
